--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -501,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,12 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -565,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC263 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
@@ -661,17 +665,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>EC262 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>MA263 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>MA262</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC301</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -771,27 +775,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>EC261</t>
         </is>
       </c>
     </row>
@@ -835,17 +839,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS201</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -855,7 +859,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC301</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,27 +903,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC302</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS263</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,3171 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC301 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA263 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC302 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS263 (Tutorial)</t>
+          <t>EC263 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,27 +475,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
     </row>
@@ -505,27 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA263 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [C405]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C405]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC262 [C405]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -569,27 +571,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262 [C405]</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>EC261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC263 (Tutorial)</t>
+          <t>MA263 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>MA262 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC263 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -665,27 +667,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC262 (Tutorial)</t>
+          <t>EC262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA263 (Tutorial)</t>
+          <t>EC263 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA261 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,12 +777,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA263 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -790,12 +792,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
     </row>
@@ -839,27 +841,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA263 [C405]</t>
         </is>
       </c>
     </row>
@@ -871,27 +873,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC262 (Tutorial)</t>
+          <t>MA262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,27 +937,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>EC263 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA263 (Tutorial)</t>
+          <t>EC261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA263 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC263 (Tutorial)</t>
+          <t>EC262 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,177 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2734,7 +2565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3229,496 +3060,6 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3735,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3887,219 +3228,1333 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 3 focuses on B3 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,221 +464,221 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>EC263 [C002]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>MA261 [C003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC262 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC262 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MA262 [C203]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC261 [C404]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC261 [C404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C002]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA262 [C204]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC263 [C202]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC262 [C303]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS307 [C205]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC263 [C002]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307 [C205]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA261 [C003]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA262 [C204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C402]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C403]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA263 [C101]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C403]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307 [C204]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C304]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial) [C304]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EC263 [C202]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA262 [C203]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC262 [C303]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC261 [C204]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC261 [C204]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C205]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C403]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,258 +707,4216 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C303]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC261 [C203]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MA261 [C304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC262 [C304]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA263 [C302]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA261 [C304]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MA263 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C404]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC261 [C203]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C404]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EC262 [C304]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C403]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MA262 [C303]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC263 [C405]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC263 [C405]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C203]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC261 [C201]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MA263 [C305]</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC263 [C003]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC263 [C003]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC262 [C004]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C204]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261 [C201]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C204]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307 [C402]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C104]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C205]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA263 [C305]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC262 [C004]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C201]</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L306]</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C203]</t>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA263 [C302]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EC261 [C404]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC261 [C404]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>EC263 [C002]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA263 [C102]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA263 [C102]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262 [C204]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261 [C404]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC261 [C404]</t>
+          <t>EC263 [C002]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA262 [C204]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>EC262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L407]</t>
+          <t>EC263 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -604,22 +604,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C202]</t>
+          <t>MA261 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>EC262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L407]</t>
+          <t>EC263 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>MA263 [C302]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA262 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C402]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C304]</t>
+          <t>MA262 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -746,22 +746,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
+          <t>MA263 [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261 [C203]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC262 [C304]</t>
+          <t>EC262 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA263 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C201]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261 [C304]</t>
+          <t>EC262 [C203]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263 [C302]</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C404]</t>
+          <t>ELECTIVE_B3 [C304]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261 [C203]</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C404]</t>
+          <t>ELECTIVE_B3 [C304]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC262 [C304]</t>
+          <t>MA262 [C101]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L306]</t>
+          <t>MA261 [C203]</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA262 (Tutorial) [C305]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial) [C405]</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial) [C003]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>MA263 [C304]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>EC263 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262 [C303]</t>
+          <t>EC262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 [C405]</t>
+          <t>MA261 [C203]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC263 [C405]</t>
+          <t>CS307 [C201]</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C205]</t>
+          <t>MA261 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>EC263 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>EC262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
+          <t>EC261 (Tutorial) [C205]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2421,17 +2421,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2516,22 +2516,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2631,27 +2631,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2686,27 +2686,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2791,32 +2791,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2916,17 +2916,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3016,17 +3016,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3066,32 +3066,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3131,12 +3131,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,32 +3456,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -3566,32 +3566,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3836,22 +3836,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4111,22 +4111,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4281,22 +4281,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4336,32 +4336,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4506,12 +4506,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4556,27 +4556,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4666,17 +4666,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4721,17 +4721,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4776,17 +4776,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA263 [C302]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC261 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC261 [C404]</t>
+          <t>MA261 [C401]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>EC263 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>EC261 [C201]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C204]</t>
+          <t>MA263 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC262 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>EC262 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C002]</t>
+          <t>MA263 [C203]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C004]</t>
+          <t>ELECTIVE_B3 [C202]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C004]</t>
+          <t>ELECTIVE_B3 [C202]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L408]</t>
+          <t>EC261 [C201]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L408]</t>
+          <t>EC263 [C004]</t>
         </is>
       </c>
     </row>
@@ -604,22 +604,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C002]</t>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L408]</t>
+          <t>CS307 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L408]</t>
+          <t>EC261 (Tutorial) [C305]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>EC263 (Lab) [L306]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA263 [C302]</t>
+          <t>EC262 [C302]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA261 [C401]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>EC263 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C202]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C305]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial) [C303]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS307 [C002]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC263 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA263 [C304]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC261 [C104]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC263 [C203]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>EC262 [C203]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA263 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EC263 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EC262 [C203]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA263 [C004]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307 [C201]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC262 [C203]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262 [C101]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C304]</t>
+          <t>ELECTIVE_B3 [C302]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>EC262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C304]</t>
+          <t>ELECTIVE_B3 [C302]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262 [C101]</t>
+          <t>CS307 [C002]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C203]</t>
+          <t>MA261 [C201]</t>
         </is>
       </c>
     </row>
@@ -874,22 +874,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C305]</t>
+          <t>EC262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial) [C204]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C003]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 (Tutorial) [C302]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA263 [C304]</t>
+          <t>EC263 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L406]</t>
+          <t>EC261 [C002]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L408]</t>
+          <t>MA261 [C201]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261 [C203]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 [C201]</t>
+          <t>EC261 [C002]</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C302]</t>
+          <t>EC263 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L408]</t>
+          <t>EC261 (Tutorial) [C401]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>MA261 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C205]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>32.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>18.75</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2361,22 +2361,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2421,17 +2421,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2516,22 +2516,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2691,22 +2691,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2851,17 +2851,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2906,32 +2906,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3011,32 +3011,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3071,27 +3071,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,32 +3181,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3341,22 +3341,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3401,27 +3401,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,27 +3456,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3511,32 +3511,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3566,32 +3566,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3621,27 +3621,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3676,27 +3676,27 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3786,32 +3786,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3836,37 +3836,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3896,27 +3896,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3951,27 +3951,27 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4126,17 +4126,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4171,27 +4171,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC263</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4226,17 +4226,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4281,32 +4281,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4336,32 +4336,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4386,22 +4386,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4501,27 +4501,27 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4556,17 +4556,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4616,22 +4616,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4661,22 +4661,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4721,17 +4721,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4831,17 +4831,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4886,27 +4886,27 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>EC263 [C303]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA261 [C401]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>MA262 [C201]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA261 [C403]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA263 [C404]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C003]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC262 [C402]</t>
+          <t>MA263 [C303]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C402]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>MA262 [C201]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EC263 [C104]</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>MA263 [C303]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,12 +585,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA263 [C404]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
     </row>
@@ -602,27 +602,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C003]</t>
+          <t>MA262 (Tutorial) [C401]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial) [C304]</t>
         </is>
       </c>
     </row>
@@ -634,27 +634,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC263 [C104]</t>
+          <t>EC261 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC262 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262 [C201]</t>
+          <t>MA261 [C401]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L406]</t>
+          <t>EC263 [C303]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 [C003]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
     </row>
@@ -666,27 +666,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C404]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -744,22 +744,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA263 [C404]</t>
+          <t>EC261 [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC261 [C304]</t>
+          <t>EC263 [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC263 [C201]</t>
+          <t>MA262 [C402]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -776,27 +776,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C101]</t>
+          <t>EC263 [C102]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>MA263 [C303]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C002]</t>
+          <t>MA261 [C403]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C201]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
     </row>
@@ -840,27 +840,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L306]</t>
+          <t>MA262 [C402]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA263 [C303]</t>
         </is>
       </c>
     </row>
@@ -877,22 +877,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L306]</t>
+          <t>MA261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C002]</t>
+          <t>EC261 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C403]</t>
+          <t>MA262 (Tutorial) [C302]</t>
         </is>
       </c>
     </row>
@@ -904,27 +904,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 [C404]</t>
+          <t>MA261 [C403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261 [C101]</t>
+          <t>EC262 [C403]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
+          <t>EC263 (Lab) [L306]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 [C002]</t>
+          <t>EC262 [C403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA263 [C404]</t>
+          <t>EC262 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>EC263 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C303]</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C303]</t>
+          <t>EC262 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -1029,27 +1029,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**EC263**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C201</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C402, L407</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1210,39 +1210,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C403, C003</t>
+          <t>C401, C201</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1252,24 +1252,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L406, C104</t>
+          <t>C205, C405</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C202, C003</t>
+          <t>C401, C304</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1346,46 +1346,46 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C305, C204</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C404, C003</t>
+          <t>C004, L407</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1518,32 +1518,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1558,41 +1558,41 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>L306, C202</t>
+          <t>C204, C203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**EC263**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>No</t>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C002, C101</t>
+          <t>L306, C102</t>
         </is>
       </c>
     </row>
@@ -1652,19 +1652,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1694,39 +1694,39 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C404, C303, C304</t>
+          <t>C403, C101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1746,34 +1746,34 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C205, C102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C002, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -1840,24 +1840,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C102, C403</t>
+          <t>C402, C302</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C403, L406</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>⚠️ 6 issues</t>
+          <t>[WARN] 6 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,17 +2007,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2026,41 +2026,41 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3, MA261 (Tutorial), CS307</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2069,41 +2069,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial), EC261 (Tutorial), CS307</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2112,31 +2112,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>EC261, EC263</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2198,31 +2198,31 @@
         </is>
       </c>
       <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B3, CS307</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2241,31 +2241,31 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS307 (Tutorial), CS307</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2292,23 +2292,23 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MA262, EC263</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2327,31 +2327,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EC261, EC262</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2370,31 +2370,31 @@
         </is>
       </c>
       <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA263, EC263</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2413,31 +2413,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial), EC261 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2456,31 +2456,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>ELECTIVE_B3, CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2499,31 +2499,31 @@
         </is>
       </c>
       <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA261, MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2542,31 +2542,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>MA261, MA262 (Tutorial)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>EC261, MA263, CS307 (Tutorial)</t>
+          <t>MA261, EC262</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2652,7 +2652,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2695,7 +2695,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2730,6 +2730,49 @@
         </is>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -2844,22 +2887,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2901,22 +2944,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2958,22 +3001,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3005,32 +3048,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2/0/2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -3072,22 +3115,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3129,22 +3172,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3186,22 +3229,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3243,22 +3286,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3341,7 +3384,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3425,12 +3468,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17/35</t>
+          <t>18/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 48.6%</t>
+          <t>Utilization: 51.4%</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3495,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 68.6%, B: 62.9%</t>
+          <t>A: 62.9%, B: 68.6%</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3512,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -7,13 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Verification_A" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Verification_B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Room_Allocation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="LTPSC_Compliance" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Executive_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Utilization" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,6 +443,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,61 +475,61 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC263 [C303]</t>
+          <t>MA262 [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261 [C401]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA262 [C201]</t>
+          <t>EC261 [C201]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>MA263 [C404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MA263 [C303]</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C405]</t>
+          <t>MA262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262 [C201]</t>
+          <t>CS307 [C404]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,7 +539,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>12:00-13:00</t>
         </is>
@@ -563,24 +571,24 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C203]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA263 [C303]</t>
+          <t>EC262 [C302]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C203]</t>
+          <t>ELECTIVE_B3 [C305]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -590,19 +598,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>EC262 (Lab) [L407]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial) [C401]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,68 +620,68 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C205]</t>
+          <t>EC261 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C304]</t>
+          <t>EC262 (Lab) [L407]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 [C405]</t>
+          <t>EC262 [C302]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L407]</t>
+          <t>EC261 [C201]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261 [C401]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 [C303]</t>
+          <t>MA263 [C404]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>CS307 [C404]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial) [C303]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L407]</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
@@ -681,12 +689,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial) [C101]</t>
         </is>
       </c>
     </row>
@@ -695,13 +703,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,253 +718,1269 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CS307 [C203]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EC261 [C102]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC263 [C102]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>MA262 [C402]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC263 [C102]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA263 [C303]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA261 [C403]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC261 [C102]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS307 [C203]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C305]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA262 [C402]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C305]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA263 [C303]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial) [C101]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial) [C205]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C204]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial) [C302]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MA261 [C403]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>EC262 [C403]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EC262 [C403]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC263 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L406]</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>
@@ -965,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1029,27 +2053,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1069,34 +2093,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004, C202</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1111,44 +2135,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1163,29 +2187,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407, C302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1210,34 +2234,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C401, C201</t>
+          <t>C404, C303</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**EC263**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Analog Electronics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1252,12 +2276,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C205, C405</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1304,29 +2328,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C401, C304</t>
+          <t>C101, C003</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1346,34 +2370,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C305, C204</t>
+          <t>C201, C203</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1383,7 +2407,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1393,12 +2417,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, L407</t>
+          <t>C404</t>
         </is>
       </c>
     </row>
@@ -1454,13 +2478,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,470 +2495,520 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Faculty</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LTPSC</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Lect/Tuts/Week</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Labs/Week</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Combined Class</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Allocation</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C204, C203</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**EC263**</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L306, C102</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C403, C101</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>EC263, MA262</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C205, C102</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C402, C302</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C403, L406</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**SUMMARY**</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Total Courses: 8</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Complete: 2</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rate: 25.0%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lectures: 16</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[WARN] 6 issues</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MA263, CS307</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1943,847 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Room Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Sessions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sections</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Courses Assigned</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Courses</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Utilization (Sessions/Day)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>EC261, EC263</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C201</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3, CS307</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial), CS307</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>MA263, EC263</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3, CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>C401</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>MA261, MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C402</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C403</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>MA261, EC262</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C405</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>L306</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2882,7 +3116,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2892,7 +3126,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2939,32 +3173,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[OK] FULLY COMPLIANT</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Meets requirements</t>
+          <t>Check scheduling</t>
         </is>
       </c>
     </row>
@@ -2996,7 +3230,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3011,7 +3245,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3053,7 +3287,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3110,7 +3344,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3167,7 +3401,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3177,7 +3411,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3224,7 +3458,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3234,7 +3468,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3281,32 +3515,32 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[OK]</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[OK] FULLY COMPLIANT</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Meets requirements</t>
+          <t>Check scheduling</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3384,7 +3618,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-12 16:59</t>
+          <t>2025-12-13 17:28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3426,12 +3660,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2/8 courses fully compliant</t>
+          <t>0/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -3468,12 +3702,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18/35</t>
+          <t>11/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 51.4%</t>
+          <t>Utilization: 31.4%</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3724,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>65.7%</t>
+          <t>31.4%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 62.9%, B: 68.6%</t>
+          <t>A: 62.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3751,3358 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Score: 59.7/100</t>
+          <t>Score: 39.4/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Department: ECE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -7,13 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,20 +452,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
@@ -469,133 +479,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261 [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC261 [C204]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC262 [C205]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C205]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>EC262 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC263 [C202]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC263 [C202]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C304]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -604,25 +639,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 [C204]</t>
+          <t>MA261 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC261 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -631,27 +671,2049 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C003]</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC261 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC262 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC263 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA262 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MA262 [C001]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EC262 [C202]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EC263 [C202]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA263 [C202]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC263 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA263 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC261 [C202]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -666,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,216 +2739,470 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA261 [C101]</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC263 [C205]</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262 [C104]</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC263 [C303]</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA263 [C102]</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C204]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C202]</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [C202]</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [C202]</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [C202]</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C202, L105</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**EC263**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C202, L105</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Total Courses: 8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rate: 25.0%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lectures: 16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[WARN] 6 issues</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
@@ -901,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,87 +3228,171 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tutorial Day</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Courses in Basket</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Branches</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>MA261 (Tutorial), MA262 (Tutorial), MA261...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>1.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai, MINOR: Cybersecurity, MINOR: DSAI...</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EC263 (Lab), EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -1002,6 +3402,882 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Analog Electronics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 7, Elective: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/8 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Elective Baskets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baskets Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13 courses in baskets</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3/36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Utilization: 8.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>37.8%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A: 75.6%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Score: 41.3/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2461,13 +5737,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,1242 +5754,492 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Lecture Slots</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Weekly Hours (Timetable)</t>
+          <t>Tutorial Slot</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily Avg Hours (Timetable)</t>
+          <t>Total Courses in Basket</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Exam Sessions</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Utilization Rate (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
+          <t>Common for Both Sections</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Computers, Books</t>
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tables, Chairs</t>
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Physics Lab</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C306</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C307</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C308</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3722,13 +6248,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3819,12 +6345,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3853,12 +6379,12 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -3878,29 +6404,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -3912,12 +6434,12 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -3937,29 +6459,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -3971,12 +6489,12 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -3996,29 +6514,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="b">
         <v>0</v>
       </c>
@@ -4030,12 +6544,12 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4055,12 +6569,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4075,7 +6589,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4089,12 +6603,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -4114,12 +6628,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4129,14 +6643,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
@@ -4148,12 +6658,12 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4173,12 +6683,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4193,7 +6703,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4207,12 +6717,12 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4232,12 +6742,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4252,7 +6762,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4266,12 +6776,12 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -4291,29 +6801,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -4325,12 +6831,12 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -4350,29 +6856,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -4384,12 +6886,12 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -4409,12 +6911,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4429,7 +6931,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4443,12 +6945,12 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -4468,12 +6970,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4502,12 +7004,12 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4527,27 +7029,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4561,12 +7063,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC261</t>
         </is>
       </c>
     </row>
@@ -4586,27 +7088,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4620,12 +7122,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4645,25 +7147,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -4675,12 +7181,12 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -4700,12 +7206,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4734,12 +7240,12 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -4759,12 +7265,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4793,12 +7299,12 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
         </is>
       </c>
     </row>
@@ -4818,27 +7324,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4846,18 +7352,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -4882,22 +7388,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4905,22 +7411,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4945,22 +7447,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4968,22 +7470,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5008,22 +7506,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5031,22 +7529,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -5066,27 +7560,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5094,22 +7588,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5129,27 +7619,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5157,22 +7647,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -5192,27 +7678,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5220,22 +7706,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
@@ -5255,27 +7737,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5283,22 +7765,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5323,7 +7801,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5346,13 +7824,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5372,17 +7850,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5411,12 +7889,12 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -5431,32 +7909,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5470,12 +7948,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5490,17 +7968,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5529,12 +8007,12 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5549,17 +8027,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5593,7 +8071,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC263</t>
         </is>
       </c>
     </row>
@@ -5608,17 +8086,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5652,7 +8130,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -5667,17 +8145,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5706,12 +8184,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5726,32 +8204,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5759,18 +8237,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5785,32 +8267,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5818,18 +8300,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5844,32 +8330,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5877,18 +8363,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5903,32 +8393,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5936,18 +8426,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5962,32 +8456,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5995,18 +8489,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6021,32 +8519,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6054,18 +8552,22 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6080,51 +8582,55 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6139,32 +8645,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6172,18 +8678,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6198,32 +8708,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6231,18 +8741,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6257,32 +8771,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6290,18 +8804,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6316,32 +8834,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6349,18 +8867,22 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6375,32 +8897,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6411,15 +8933,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6434,7 +8960,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6444,7 +8970,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6482,7 +9008,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6497,7 +9023,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6507,7 +9033,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6545,7 +9071,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6560,17 +9086,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6596,11 +9122,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6608,7 +9130,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -6623,17 +9145,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6671,7 +9193,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6686,17 +9208,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6734,7 +9256,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6749,17 +9271,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6797,7 +9319,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6812,17 +9334,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6860,7 +9382,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6875,32 +9397,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6911,470 +9433,263 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>EC263 (Lab)</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C004</t>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -516,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261 [C001]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261 [C001]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C101]</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,17 +649,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C202]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C202]</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -770,6 +770,3721 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -823,27 +4538,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -855,27 +4570,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261 [C001]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261 [C001]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C101]</t>
         </is>
       </c>
     </row>
@@ -897,17 +4612,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>EC262 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -956,7 +4671,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -966,7 +4681,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -988,17 +4703,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C202]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L105]</t>
+          <t>EC263 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1015,12 +4730,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA263 [C202]</t>
+          <t>MA263 [C101]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C202]</t>
+          <t>EC261 [C104]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1030,7 +4745,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1052,7 +4767,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C202]</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1079,27 +4794,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -1108,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1181,16 +4896,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>16.25</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1279,16 +4994,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1313,16 +5028,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1415,16 +5130,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1449,16 +5164,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1585,16 +5300,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1721,16 +5436,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2361,359 +6076,6 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>TV</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2826,7 +6188,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -2967,7 +6329,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3014,41 +6376,41 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104, C101</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>No</t>
@@ -3061,39 +6423,39 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L105, C101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3108,7 +6470,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C202, L105</t>
+          <t>C104, C101</t>
         </is>
       </c>
     </row>
@@ -3155,7 +6517,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C202, L105</t>
+          <t>L206, C101</t>
         </is>
       </c>
     </row>
@@ -3217,7 +6579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3289,7 +6651,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3301,38 +6663,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial), MA262 (Tutorial), MA261...</t>
+          <t>MA262, MA262 (Tutorial), MA261 (Tutorial)...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3340,59 +6702,188 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai, MINOR: Cybersecurity, MINOR: DSAI...</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EC262, MA263, EC261 (Tutorial)...</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EC261, CS307</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>EC263 (Lab), EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3723,7 +7214,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4002,7 +7493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:02</t>
+          <t>2026-01-20 00:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4069,7 +7560,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13 courses in baskets</t>
+          <t>7 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -4086,12 +7577,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -4108,12 +7599,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37.8%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 75.6%, B: 0.0%</t>
+          <t>A: 77.8%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -4135,7 +7626,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Score: 41.3/100</t>
+          <t>Score: 41.7/100</t>
         </is>
       </c>
     </row>
@@ -4233,12 +7724,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5743,7 +9234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5806,11 +9297,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5841,11 +9332,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5876,11 +9367,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5911,11 +9402,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5946,11 +9437,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5981,11 +9472,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6016,11 +9507,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6028,216 +9519,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>13</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6254,7 +9535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6265,3431 +9546,334 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
-        </is>
-      </c>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
+          <t>C104</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -676,22 +676,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,7 +905,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -945,19 +945,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -969,7 +965,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1153,7 +1149,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1277,7 +1273,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1341,7 +1337,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1525,7 +1521,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1589,7 +1585,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1653,7 +1649,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1717,7 +1713,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1781,7 +1777,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1845,7 +1841,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1909,7 +1905,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1973,7 +1969,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2037,7 +2033,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2101,7 +2097,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2165,7 +2161,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2229,7 +2225,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2293,7 +2289,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2357,7 +2353,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2549,7 +2545,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2613,7 +2609,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2677,7 +2673,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2741,7 +2737,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2805,7 +2801,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2869,7 +2865,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2909,17 +2905,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -2930,18 +2926,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2959,7 +2963,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2969,17 +2973,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -2990,18 +2994,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3019,27 +3031,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -3050,18 +3062,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3089,19 +3109,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -3117,12 +3133,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3157,12 +3173,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3185,12 +3201,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3225,12 +3241,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3253,12 +3269,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3293,15 +3309,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -3317,12 +3337,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3347,27 +3367,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -3385,17 +3405,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3415,22 +3435,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3453,17 +3473,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3483,22 +3503,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3521,17 +3541,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3561,19 +3581,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -3589,12 +3605,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3629,12 +3645,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3657,12 +3673,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3697,12 +3713,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3725,12 +3741,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3765,15 +3781,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -3789,12 +3809,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3819,27 +3839,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -3857,17 +3877,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3887,22 +3907,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3925,17 +3945,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3955,22 +3975,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3993,17 +4013,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4033,19 +4053,15 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -4061,12 +4077,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4101,12 +4117,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4129,12 +4145,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4169,12 +4185,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4197,12 +4213,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4237,15 +4253,19 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -4261,219 +4281,15 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
@@ -4538,27 +4354,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4386,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4580,17 +4396,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4428,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4487,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4708,7 +4524,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4730,22 +4546,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C104]</t>
+          <t>EC261 [C202]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4767,12 +4583,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4794,27 +4610,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -4896,16 +4712,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>16.25</v>
+        <v>20</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -4994,16 +4810,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -5028,16 +4844,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -5130,16 +4946,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -5164,16 +4980,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5300,16 +5116,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5436,16 +5252,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -6188,7 +6004,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6145,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6192,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C104, C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6239,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L105, C101</t>
+          <t>L206, C202</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6286,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C104, C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6333,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L206, C101</t>
+          <t>L206, C202</t>
         </is>
       </c>
     </row>
@@ -6579,7 +6395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,7 +6467,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6663,38 +6479,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA262, MA262 (Tutorial), MA261 (Tutorial)...</t>
+          <t>MA262 (Tutorial), MA261, MA261 (Tutorial)...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6702,42 +6518,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261 (Tutorial), MINOR: Cybersecurity, EC262...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -6745,145 +6561,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC262, MA263, EC261 (Tutorial)...</t>
+          <t>EC263 (Lab), EC262 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>EC261, CS307</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7180,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7577,12 +7264,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>3/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 8.3%</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC263 [C004]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L206]</t>
+          <t>EC263 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC263 [C101]</t>
+          <t>EC263 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C202]</t>
+          <t>CS307 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2677,16 +2677,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2711,16 +2711,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40.5</v>
+        <v>25.5</v>
       </c>
       <c r="E5" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2779,16 +2779,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2881,16 +2881,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2983,16 +2983,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.75</v>
+        <v>22.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3187,16 +3187,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3289,16 +3289,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3459,16 +3459,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4130,7 +4130,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4706,7 +4706,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4778,7 +4778,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4850,7 +4850,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5138,7 +5138,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5210,7 +5210,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5282,7 +5282,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5546,17 +5546,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5570,7 +5570,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6362,17 +6362,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6918,7 +6918,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6962,19 +6962,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -6986,7 +6982,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7039,10 +7035,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7390,19 +7390,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7414,7 +7410,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7462,19 +7458,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7486,7 +7478,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7688,7 +7680,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -7702,7 +7694,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7894,19 +7886,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7918,7 +7906,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7966,19 +7954,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -7990,7 +7974,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8134,7 +8118,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8398,19 +8382,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -8422,7 +8402,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8470,19 +8450,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8494,7 +8470,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8566,7 +8542,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8686,19 +8662,15 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
@@ -8710,7 +8682,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -9230,7 +9202,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9288,7 +9260,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -9306,7 +9278,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9354,15 +9326,19 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
@@ -9378,7 +9354,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9434,11 +9410,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -9454,7 +9426,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9502,12 +9474,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9530,7 +9502,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9606,7 +9578,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9682,7 +9654,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9834,7 +9806,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -9968,7 +9940,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C004, C203</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -9985,7 +9957,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C002, C204</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -10002,7 +9974,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101, C205</t>
+          <t>C002, C204</t>
         </is>
       </c>
     </row>
@@ -10019,7 +9991,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -10036,7 +10008,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104, C303</t>
+          <t>C102, C302</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10025,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202, C304</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -10070,7 +10042,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203, C305</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10150,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C004, C203</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10167,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C204</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10197,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10240,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C202, C203, C305</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_ECE_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
     </row>
@@ -528,22 +528,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC263 [C203]</t>
+          <t>EC263 [C104]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L107]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C104]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC263 (Lab) [L107]</t>
+          <t>EC263 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -636,17 +636,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L107]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -690,22 +690,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
     </row>
@@ -817,22 +817,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EC262 [C101]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC263 [C202]</t>
+          <t>EC263 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA263 [C101]</t>
+          <t>MA263 [C203]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C203]</t>
+          <t>CS307 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC261 [C101]</t>
+          <t>EC261 [C203]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.74999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2779,16 +2779,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>11.25</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2813,16 +2813,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2881,16 +2881,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -2983,16 +2983,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.5</v>
+        <v>33.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.25</v>
+        <v>26.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3153,16 +3153,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3221,16 +3221,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3289,16 +3289,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11.25</v>
+        <v>26.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3459,16 +3459,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3962,17 +3962,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3986,7 +3986,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4106,17 +4106,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4130,7 +4130,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4178,17 +4178,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4202,7 +4202,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4274,7 +4274,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4394,17 +4394,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4418,7 +4418,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4490,7 +4490,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4538,17 +4538,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4562,7 +4562,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4610,17 +4610,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4634,7 +4634,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4706,7 +4706,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4778,7 +4778,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4850,7 +4850,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4898,17 +4898,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4922,7 +4922,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4970,17 +4970,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4994,7 +4994,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5042,17 +5042,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5066,7 +5066,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -5138,7 +5138,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5210,7 +5210,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5282,7 +5282,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5330,17 +5330,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5354,7 +5354,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5402,17 +5402,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5426,7 +5426,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5474,17 +5474,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5498,7 +5498,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5570,7 +5570,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5618,17 +5618,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5642,7 +5642,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5690,17 +5690,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5714,7 +5714,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5762,17 +5762,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5786,7 +5786,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6524,7 +6524,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6918,7 +6918,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6962,15 +6962,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -6982,7 +6986,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7102,17 +7106,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -7126,7 +7130,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7184,7 +7188,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7198,7 +7202,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7256,7 +7260,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7270,7 +7274,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7390,15 +7394,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7410,7 +7418,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7458,15 +7466,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
@@ -7478,7 +7490,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7536,7 +7548,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -7550,7 +7562,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7622,7 +7634,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7680,7 +7692,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -7694,7 +7706,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7886,15 +7898,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7906,7 +7922,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7954,15 +7970,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -7974,7 +7994,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8046,7 +8066,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8104,7 +8124,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -8118,7 +8138,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8320,7 +8340,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -8334,7 +8354,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8382,15 +8402,19 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -8402,7 +8426,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8450,15 +8474,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8470,7 +8498,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8528,7 +8556,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8542,7 +8570,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8600,7 +8628,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8614,7 +8642,7 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8662,15 +8690,19 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
@@ -8682,7 +8714,7 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8740,7 +8772,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -8754,7 +8786,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8798,17 +8830,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -8826,7 +8858,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8874,15 +8906,19 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
@@ -8898,7 +8934,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8946,12 +8982,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -8974,7 +9010,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9050,7 +9086,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9108,7 +9144,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9126,7 +9162,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9184,7 +9220,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9202,7 +9238,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9278,7 +9314,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9326,17 +9362,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9354,7 +9390,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9402,15 +9438,19 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
@@ -9426,7 +9466,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9474,12 +9514,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9502,7 +9542,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9578,7 +9618,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9636,7 +9676,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9654,7 +9694,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9712,7 +9752,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -9730,7 +9770,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9806,7 +9846,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -9940,7 +9980,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9997,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9974,7 +10014,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C204</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -9991,7 +10031,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10048,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10065,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -10042,7 +10082,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -10150,7 +10190,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10167,7 +10207,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10237,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10280,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
